--- a/data_sigmoid_no_exact_verif_bounds_tightness_1como7_tolper1.xlsx
+++ b/data_sigmoid_no_exact_verif_bounds_tightness_1como7_tolper1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,13 +429,13 @@
         <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>0.9987244897959183</v>
+        <v>0.9961734693877551</v>
       </c>
       <c r="D1" t="n">
         <v>0</v>
       </c>
       <c r="E1" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F1" t="inlineStr">
         <is>
@@ -450,26 +450,51 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
+        <v>0.9987244897959183</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
